--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Ntn4</t>
+  </si>
+  <si>
+    <t>Unc5a</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntn4</t>
-  </si>
-  <si>
-    <t>Unc5a</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.227093333333333</v>
+        <v>2.914853666666666</v>
       </c>
       <c r="H2">
-        <v>3.68128</v>
+        <v>8.744560999999999</v>
       </c>
       <c r="I2">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="J2">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N2">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O2">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P2">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q2">
-        <v>0.5709219436088889</v>
+        <v>2.270166736649</v>
       </c>
       <c r="R2">
-        <v>5.13829749248</v>
+        <v>20.431500629841</v>
       </c>
       <c r="S2">
-        <v>0.001848108065943732</v>
+        <v>0.009445987482000574</v>
       </c>
       <c r="T2">
-        <v>0.001848108065943732</v>
+        <v>0.009445987482000574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.227093333333333</v>
+        <v>2.914853666666666</v>
       </c>
       <c r="H3">
-        <v>3.68128</v>
+        <v>8.744560999999999</v>
       </c>
       <c r="I3">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="J3">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.249878</v>
       </c>
       <c r="O3">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P3">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q3">
-        <v>1.738332320426667</v>
+        <v>4.129257490395332</v>
       </c>
       <c r="R3">
-        <v>15.64499088384</v>
+        <v>37.163317413558</v>
       </c>
       <c r="S3">
-        <v>0.005627084435332234</v>
+        <v>0.01718151972476114</v>
       </c>
       <c r="T3">
-        <v>0.005627084435332235</v>
+        <v>0.01718151972476114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.227093333333333</v>
+        <v>2.914853666666666</v>
       </c>
       <c r="H4">
-        <v>3.68128</v>
+        <v>8.744560999999999</v>
       </c>
       <c r="I4">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="J4">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N4">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O4">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P4">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q4">
-        <v>1.374596496497778</v>
+        <v>3.893579912030666</v>
       </c>
       <c r="R4">
-        <v>12.37136846848</v>
+        <v>35.042219208276</v>
       </c>
       <c r="S4">
-        <v>0.0044496500809502</v>
+        <v>0.01620088362474192</v>
       </c>
       <c r="T4">
-        <v>0.004449650080950201</v>
+        <v>0.01620088362474192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.227093333333333</v>
+        <v>2.914853666666666</v>
       </c>
       <c r="H5">
-        <v>3.68128</v>
+        <v>8.744560999999999</v>
       </c>
       <c r="I5">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="J5">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N5">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O5">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P5">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q5">
-        <v>2.39850485248</v>
+        <v>2.471127436225778</v>
       </c>
       <c r="R5">
-        <v>21.58654367232</v>
+        <v>22.240146926032</v>
       </c>
       <c r="S5">
-        <v>0.007764101929685319</v>
+        <v>0.01028216934561927</v>
       </c>
       <c r="T5">
-        <v>0.007764101929685321</v>
+        <v>0.01028216934561927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.227093333333333</v>
+        <v>2.914853666666666</v>
       </c>
       <c r="H6">
-        <v>3.68128</v>
+        <v>8.744560999999999</v>
       </c>
       <c r="I6">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="J6">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N6">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O6">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P6">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q6">
-        <v>8.724470396586668</v>
+        <v>18.29208548411767</v>
       </c>
       <c r="R6">
-        <v>78.52023356928001</v>
+        <v>164.628769357059</v>
       </c>
       <c r="S6">
-        <v>0.02824162618290381</v>
+        <v>0.07611194707121427</v>
       </c>
       <c r="T6">
-        <v>0.02824162618290381</v>
+        <v>0.07611194707121427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227093333333333</v>
+        <v>2.914853666666666</v>
       </c>
       <c r="H7">
-        <v>3.68128</v>
+        <v>8.744560999999999</v>
       </c>
       <c r="I7">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="J7">
-        <v>0.05207584767542949</v>
+        <v>0.149565206058179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N7">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O7">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P7">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q7">
-        <v>1.280568833706667</v>
+        <v>4.888987864928999</v>
       </c>
       <c r="R7">
-        <v>11.52511950336</v>
+        <v>44.00089078436099</v>
       </c>
       <c r="S7">
-        <v>0.004145276980614204</v>
+        <v>0.02034269880984179</v>
       </c>
       <c r="T7">
-        <v>0.004145276980614205</v>
+        <v>0.0203426988098418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.935316</v>
       </c>
       <c r="I8">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="J8">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N8">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O8">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P8">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q8">
-        <v>2.781550294995111</v>
+        <v>4.656169451444</v>
       </c>
       <c r="R8">
-        <v>25.033952654956</v>
+        <v>41.905525062996</v>
       </c>
       <c r="S8">
-        <v>0.009004042660392489</v>
+        <v>0.01937395947283398</v>
       </c>
       <c r="T8">
-        <v>0.009004042660392491</v>
+        <v>0.01937395947283398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.935316</v>
       </c>
       <c r="I9">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="J9">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.249878</v>
       </c>
       <c r="O9">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P9">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q9">
         <v>8.469211654605333</v>
@@ -1013,10 +1013,10 @@
         <v>76.222904891448</v>
       </c>
       <c r="S9">
-        <v>0.02741533855245055</v>
+        <v>0.03523973194581456</v>
       </c>
       <c r="T9">
-        <v>0.02741533855245056</v>
+        <v>0.03523973194581456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.935316</v>
       </c>
       <c r="I10">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="J10">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N10">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O10">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P10">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q10">
-        <v>6.697078879406223</v>
+        <v>7.985830974650668</v>
       </c>
       <c r="R10">
-        <v>60.273709914656</v>
+        <v>71.87247877185601</v>
       </c>
       <c r="S10">
-        <v>0.02167884004782777</v>
+        <v>0.03322842247758026</v>
       </c>
       <c r="T10">
-        <v>0.02167884004782777</v>
+        <v>0.03322842247758026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.935316</v>
       </c>
       <c r="I11">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="J11">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N11">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O11">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P11">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q11">
-        <v>11.685593721956</v>
+        <v>5.068344934065778</v>
       </c>
       <c r="R11">
-        <v>105.170343497604</v>
+        <v>45.615104406592</v>
       </c>
       <c r="S11">
-        <v>0.03782695735318041</v>
+        <v>0.02108898964501417</v>
       </c>
       <c r="T11">
-        <v>0.03782695735318042</v>
+        <v>0.02108898964501417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>17.935316</v>
       </c>
       <c r="I12">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="J12">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N12">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O12">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P12">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q12">
-        <v>42.50590378765733</v>
+        <v>37.51753043482267</v>
       </c>
       <c r="R12">
-        <v>382.553134088916</v>
+        <v>337.657773913404</v>
       </c>
       <c r="S12">
-        <v>0.1375941221380209</v>
+        <v>0.1561075303948938</v>
       </c>
       <c r="T12">
-        <v>0.1375941221380209</v>
+        <v>0.1561075303948938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>17.935316</v>
       </c>
       <c r="I13">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="J13">
-        <v>0.2537152251463332</v>
+        <v>0.3067620242180887</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N13">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O13">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P13">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q13">
-        <v>6.238973045321333</v>
+        <v>10.027437887124</v>
       </c>
       <c r="R13">
-        <v>56.150757407892</v>
+        <v>90.24694098411599</v>
       </c>
       <c r="S13">
-        <v>0.02019592439446106</v>
+        <v>0.04172339028195201</v>
       </c>
       <c r="T13">
-        <v>0.02019592439446107</v>
+        <v>0.04172339028195202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04402866666666666</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H14">
         <v>0.132086</v>
       </c>
       <c r="I14">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="J14">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N14">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O14">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P14">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q14">
-        <v>0.02048493889177777</v>
+        <v>0.034290714374</v>
       </c>
       <c r="R14">
-        <v>0.184364450026</v>
+        <v>0.308616429366</v>
       </c>
       <c r="S14">
-        <v>6.631095760122666E-05</v>
+        <v>0.0001426809993717841</v>
       </c>
       <c r="T14">
-        <v>6.631095760122667E-05</v>
+        <v>0.0001426809993717841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04402866666666666</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H15">
         <v>0.132086</v>
       </c>
       <c r="I15">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="J15">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.249878</v>
       </c>
       <c r="O15">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P15">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q15">
         <v>0.06237215394533333</v>
       </c>
       <c r="R15">
-        <v>0.5613493855079998</v>
+        <v>0.5613493855080001</v>
       </c>
       <c r="S15">
-        <v>0.0002019023477500471</v>
+        <v>0.0002595256885239637</v>
       </c>
       <c r="T15">
-        <v>0.0002019023477500471</v>
+        <v>0.0002595256885239637</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04402866666666666</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H16">
         <v>0.132086</v>
       </c>
       <c r="I16">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="J16">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N16">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O16">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P16">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q16">
-        <v>0.04932114721955556</v>
+        <v>0.05881226013066668</v>
       </c>
       <c r="R16">
-        <v>0.443890324976</v>
+        <v>0.5293103411760001</v>
       </c>
       <c r="S16">
-        <v>0.0001596554678243404</v>
+        <v>0.0002447132468351083</v>
       </c>
       <c r="T16">
-        <v>0.0001596554678243405</v>
+        <v>0.0002447132468351083</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04402866666666666</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H17">
         <v>0.132086</v>
       </c>
       <c r="I17">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="J17">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N17">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O17">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P17">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q17">
-        <v>0.08605944452599998</v>
+        <v>0.03732621209244445</v>
       </c>
       <c r="R17">
-        <v>0.7745350007339998</v>
+        <v>0.335935908832</v>
       </c>
       <c r="S17">
-        <v>0.0002785795069878996</v>
+        <v>0.0001553114696307187</v>
       </c>
       <c r="T17">
-        <v>0.0002785795069878996</v>
+        <v>0.0001553114696307187</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04402866666666666</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H18">
         <v>0.132086</v>
       </c>
       <c r="I18">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="J18">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N18">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O18">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P18">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q18">
-        <v>0.3130379641873333</v>
+        <v>0.2763007088926667</v>
       </c>
       <c r="R18">
-        <v>2.817341677686</v>
+        <v>2.486706380034</v>
       </c>
       <c r="S18">
-        <v>0.001013322386777162</v>
+        <v>0.00114966579120992</v>
       </c>
       <c r="T18">
-        <v>0.001013322386777162</v>
+        <v>0.00114966579120992</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04402866666666666</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H19">
         <v>0.132086</v>
       </c>
       <c r="I19">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="J19">
-        <v>0.001868505089549499</v>
+        <v>0.002259172279477567</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N19">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O19">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P19">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q19">
-        <v>0.04594739193133333</v>
+        <v>0.073847829654</v>
       </c>
       <c r="R19">
-        <v>0.4135265273819999</v>
+        <v>0.664630466886</v>
       </c>
       <c r="S19">
-        <v>0.0001487344226088229</v>
+        <v>0.0003072750839060719</v>
       </c>
       <c r="T19">
-        <v>0.000148734422608823</v>
+        <v>0.000307275083906072</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.157008</v>
+        <v>10.45871066666667</v>
       </c>
       <c r="H20">
-        <v>48.471024</v>
+        <v>31.376132</v>
       </c>
       <c r="I20">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="J20">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N20">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O20">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P20">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q20">
-        <v>7.517268784442668</v>
+        <v>8.145526252388001</v>
       </c>
       <c r="R20">
-        <v>67.655419059984</v>
+        <v>73.309736271492</v>
       </c>
       <c r="S20">
-        <v>0.02433384323359054</v>
+        <v>0.03389290212574395</v>
       </c>
       <c r="T20">
-        <v>0.02433384323359055</v>
+        <v>0.03389290212574395</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.157008</v>
+        <v>10.45871066666667</v>
       </c>
       <c r="H21">
-        <v>48.471024</v>
+        <v>31.376132</v>
       </c>
       <c r="I21">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="J21">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.249878</v>
       </c>
       <c r="O21">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P21">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q21">
-        <v>22.888437615008</v>
+        <v>14.81608145687733</v>
       </c>
       <c r="R21">
-        <v>205.995938535072</v>
+        <v>133.344733111896</v>
       </c>
       <c r="S21">
-        <v>0.07409122498560695</v>
+        <v>0.06164856427266152</v>
       </c>
       <c r="T21">
-        <v>0.07409122498560695</v>
+        <v>0.06164856427266152</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.157008</v>
+        <v>10.45871066666667</v>
       </c>
       <c r="H22">
-        <v>48.471024</v>
+        <v>31.376132</v>
       </c>
       <c r="I22">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="J22">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N22">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O22">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P22">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q22">
-        <v>18.09916653230934</v>
+        <v>13.97045286463467</v>
       </c>
       <c r="R22">
-        <v>162.892498790784</v>
+        <v>125.734075781712</v>
       </c>
       <c r="S22">
-        <v>0.05858807150375388</v>
+        <v>0.0581299693748538</v>
       </c>
       <c r="T22">
-        <v>0.05858807150375388</v>
+        <v>0.0581299693748538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.157008</v>
+        <v>10.45871066666667</v>
       </c>
       <c r="H23">
-        <v>48.471024</v>
+        <v>31.376132</v>
       </c>
       <c r="I23">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="J23">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N23">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O23">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P23">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q23">
-        <v>31.580859447984</v>
+        <v>8.86658811435378</v>
       </c>
       <c r="R23">
-        <v>284.227735031856</v>
+        <v>79.79929302918401</v>
       </c>
       <c r="S23">
-        <v>0.1022291080744261</v>
+        <v>0.03689318453316338</v>
       </c>
       <c r="T23">
-        <v>0.1022291080744261</v>
+        <v>0.03689318453316338</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.157008</v>
+        <v>10.45871066666667</v>
       </c>
       <c r="H24">
-        <v>48.471024</v>
+        <v>31.376132</v>
       </c>
       <c r="I24">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="J24">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N24">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O24">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P24">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q24">
-        <v>114.874177997936</v>
+        <v>65.63335640347867</v>
       </c>
       <c r="R24">
-        <v>1033.867601981424</v>
+        <v>590.7002076313081</v>
       </c>
       <c r="S24">
-        <v>0.3718545018337531</v>
+        <v>0.2730952986757634</v>
       </c>
       <c r="T24">
-        <v>0.3718545018337532</v>
+        <v>0.2730952986757634</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.157008</v>
+        <v>10.45871066666667</v>
       </c>
       <c r="H25">
-        <v>48.471024</v>
+        <v>31.376132</v>
       </c>
       <c r="I25">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="J25">
-        <v>0.6856771727486328</v>
+        <v>0.536651027751836</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N25">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O25">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P25">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q25">
-        <v>16.861114251632</v>
+        <v>17.542050263748</v>
       </c>
       <c r="R25">
-        <v>151.750028264688</v>
+        <v>157.878452373732</v>
       </c>
       <c r="S25">
-        <v>0.05458042311750223</v>
+        <v>0.07299110876964997</v>
       </c>
       <c r="T25">
-        <v>0.05458042311750224</v>
+        <v>0.07299110876964998</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.15701</v>
+        <v>0.092817</v>
       </c>
       <c r="H26">
-        <v>0.4710299999999999</v>
+        <v>0.278451</v>
       </c>
       <c r="I26">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="J26">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4652636666666667</v>
+        <v>0.778827</v>
       </c>
       <c r="N26">
-        <v>1.395791</v>
+        <v>2.336481</v>
       </c>
       <c r="O26">
-        <v>0.03548877547730651</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="P26">
-        <v>0.03548877547730652</v>
+        <v>0.06315631643850513</v>
       </c>
       <c r="Q26">
-        <v>0.07305104830333332</v>
+        <v>0.072288385659</v>
       </c>
       <c r="R26">
-        <v>0.6574594347299999</v>
+        <v>0.650595470931</v>
       </c>
       <c r="S26">
-        <v>0.0002364705597785215</v>
+        <v>0.0003007863585548254</v>
       </c>
       <c r="T26">
-        <v>0.0002364705597785216</v>
+        <v>0.0003007863585548254</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.15701</v>
+        <v>0.092817</v>
       </c>
       <c r="H27">
-        <v>0.4710299999999999</v>
+        <v>0.278451</v>
       </c>
       <c r="I27">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="J27">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.249878</v>
       </c>
       <c r="O27">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="P27">
-        <v>0.1080555514027132</v>
+        <v>0.1148764487248308</v>
       </c>
       <c r="Q27">
-        <v>0.22242444826</v>
+        <v>0.131486975442</v>
       </c>
       <c r="R27">
-        <v>2.00182003434</v>
+        <v>1.183382778978</v>
       </c>
       <c r="S27">
-        <v>0.0007200010815734043</v>
+        <v>0.0005471070930695624</v>
       </c>
       <c r="T27">
-        <v>0.0007200010815734043</v>
+        <v>0.0005471070930695624</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.15701</v>
+        <v>0.092817</v>
       </c>
       <c r="H28">
-        <v>0.4710299999999999</v>
+        <v>0.278451</v>
       </c>
       <c r="I28">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="J28">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.120205333333333</v>
+        <v>1.335772</v>
       </c>
       <c r="N28">
-        <v>3.360616</v>
+        <v>4.007316</v>
       </c>
       <c r="O28">
-        <v>0.08544556218620404</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="P28">
-        <v>0.08544556218620405</v>
+        <v>0.1083198696523039</v>
       </c>
       <c r="Q28">
-        <v>0.1758834393866667</v>
+        <v>0.123982349724</v>
       </c>
       <c r="R28">
-        <v>1.58295095448</v>
+        <v>1.115841147516</v>
       </c>
       <c r="S28">
-        <v>0.0005693450858478497</v>
+        <v>0.0005158809282927996</v>
       </c>
       <c r="T28">
-        <v>0.0005693450858478498</v>
+        <v>0.0005158809282927996</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.15701</v>
+        <v>0.092817</v>
       </c>
       <c r="H29">
-        <v>0.4710299999999999</v>
+        <v>0.278451</v>
       </c>
       <c r="I29">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="J29">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.954623</v>
+        <v>0.8477706666666668</v>
       </c>
       <c r="N29">
-        <v>5.863868999999999</v>
+        <v>2.543312</v>
       </c>
       <c r="O29">
-        <v>0.1490921852693833</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="P29">
-        <v>0.1490921852693834</v>
+        <v>0.06874706769447189</v>
       </c>
       <c r="Q29">
-        <v>0.3068953572299999</v>
+        <v>0.07868752996800001</v>
       </c>
       <c r="R29">
-        <v>2.762058215069999</v>
+        <v>0.708187769712</v>
       </c>
       <c r="S29">
-        <v>0.0009934384051035715</v>
+        <v>0.0003274127010443441</v>
       </c>
       <c r="T29">
-        <v>0.0009934384051035717</v>
+        <v>0.0003274127010443441</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.15701</v>
+        <v>0.092817</v>
       </c>
       <c r="H30">
-        <v>0.4710299999999999</v>
+        <v>0.278451</v>
       </c>
       <c r="I30">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="J30">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.109867</v>
+        <v>6.275473000000001</v>
       </c>
       <c r="N30">
-        <v>21.329601</v>
+        <v>18.826419</v>
       </c>
       <c r="O30">
-        <v>0.5423171670468806</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="P30">
-        <v>0.5423171670468807</v>
+        <v>0.5088880567690837</v>
       </c>
       <c r="Q30">
-        <v>1.11632021767</v>
+        <v>0.5824705774410001</v>
       </c>
       <c r="R30">
-        <v>10.04688195903</v>
+        <v>5.242235196969</v>
       </c>
       <c r="S30">
-        <v>0.003613594505425607</v>
+        <v>0.002423614836002252</v>
       </c>
       <c r="T30">
-        <v>0.003613594505425608</v>
+        <v>0.002423614836002252</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,25 +2332,25 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.15701</v>
+        <v>0.092817</v>
       </c>
       <c r="H31">
-        <v>0.4710299999999999</v>
+        <v>0.278451</v>
       </c>
       <c r="I31">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="J31">
-        <v>0.006663249340054967</v>
+        <v>0.004762569692418636</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.043579</v>
+        <v>1.677267</v>
       </c>
       <c r="N31">
-        <v>3.130737</v>
+        <v>5.031801</v>
       </c>
       <c r="O31">
-        <v>0.07960075861751234</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="P31">
-        <v>0.07960075861751235</v>
+        <v>0.1360122407208047</v>
       </c>
       <c r="Q31">
-        <v>0.16385233879</v>
+        <v>0.155678891139</v>
       </c>
       <c r="R31">
-        <v>1.47467104911</v>
+        <v>1.401110020251</v>
       </c>
       <c r="S31">
-        <v>0.0005303997023260138</v>
+        <v>0.0006477677754548523</v>
       </c>
       <c r="T31">
-        <v>0.0005303997023260139</v>
+        <v>0.0006477677754548524</v>
       </c>
     </row>
   </sheetData>
